--- a/biology/Botanique/Stargazy_pie/Stargazy_pie.xlsx
+++ b/biology/Botanique/Stargazy_pie/Stargazy_pie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le stargazy pie (« tourte regarde-étoile ») est un mets des Cornouailles préparé à l'aide de sardines, d'œufs et de pommes de terre et recouvert d'une croûte en pâte. Bien qu'on en connaisse quelques variantes selon les poissons utilisés, la particularité unique de cette tourte est que les têtes des poissons (et parfois les queues) pointent à travers la croûte, comme si elles fixaient les étoiles. Cela permet aux matières grasses de refluer dans la pâte lors de la cuisson.
@@ -517,10 +529,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ingrédients
-Ce mets nécessite 2 cercles de pâte brisée (environ 200 à 250 g de pâte en 2 morceaux) ; 8 grosses sardines ou pilchards ; 180 g de mie de pain complet ; un petit oignon haché ; 4 c. à soupe de crème liquide ; 3 œufs durs écrasés ; 1 c. à café de clou de girofle moulu ; 1 c. à soupe de coriandre ; 1 c. à soupe de cumin en poudre ; sel et poivre et 1 œuf battu.
-Préparation
-Grattez les sardines, videz-les, ouvrez-les en conservant la tête et la queue ; chauffez le four à 250°. Bien mélanger tous les ingrédients (sauf les poissons) pour faire la farce et pensez à assaisonner. Graissez le moule et foncez le moule avec la première portion de pâte. Positionnez les sardines comme les rayons d'une roue. Versez la farce en ayant soin de laisser les têtes des poissons découvertes. Couvrez avec la seconde pâte en la perçant pour permettre aux têtes d'en sortir. Roulez la pâte sur les bords pour bien fermer. Enduisez-la avec l’œuf battu. Faites cuire au four pendant 15 minutes puis réduisez la température à 200° jusqu'à obtenir une croûte bien dorée[1].
+          <t>Ingrédients</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mets nécessite 2 cercles de pâte brisée (environ 200 à 250 g de pâte en 2 morceaux) ; 8 grosses sardines ou pilchards ; 180 g de mie de pain complet ; un petit oignon haché ; 4 c. à soupe de crème liquide ; 3 œufs durs écrasés ; 1 c. à café de clou de girofle moulu ; 1 c. à soupe de coriandre ; 1 c. à soupe de cumin en poudre ; sel et poivre et 1 œuf battu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stargazy_pie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stargazy_pie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Recette</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Préparation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grattez les sardines, videz-les, ouvrez-les en conservant la tête et la queue ; chauffez le four à 250°. Bien mélanger tous les ingrédients (sauf les poissons) pour faire la farce et pensez à assaisonner. Graissez le moule et foncez le moule avec la première portion de pâte. Positionnez les sardines comme les rayons d'une roue. Versez la farce en ayant soin de laisser les têtes des poissons découvertes. Couvrez avec la seconde pâte en la perçant pour permettre aux têtes d'en sortir. Roulez la pâte sur les bords pour bien fermer. Enduisez-la avec l’œuf battu. Faites cuire au four pendant 15 minutes puis réduisez la température à 200° jusqu'à obtenir une croûte bien dorée.
 </t>
         </is>
       </c>
